--- a/Excels/CollectResultAlgo_采集结果算法表.xlsx
+++ b/Excels/CollectResultAlgo_采集结果算法表.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>int</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>ExampleAlgoName</t>
+  </si>
+  <si>
+    <t>TestAlgo</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -634,9 +637,6 @@
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="21" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1494,7 +1494,7 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="30">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1522,10 +1522,10 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="30">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
@@ -1538,8 +1538,12 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="30">
-      <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1550,8 +1554,8 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="30">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1562,8 +1566,8 @@
       <c r="J7" s="1"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="30">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1587,7 +1591,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="30">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1622,12 +1626,12 @@
     </row>
     <row r="13" s="1" customFormat="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1635,85 +1639,85 @@
     <row r="14" s="1" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" s="1" customFormat="1">
       <c r="A15" s="1"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
     <row r="16" s="1" customFormat="1">
       <c r="A16" s="1"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
     <row r="17" s="1" customFormat="1">
       <c r="A17" s="1"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" s="1" customFormat="1">
       <c r="A18" s="1"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" s="1" customFormat="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" s="1" customFormat="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" s="1" customFormat="1">
-      <c r="A21" s="8"/>
+      <c r="A21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1724,7 +1728,7 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" s="1" customFormat="1">
-      <c r="A22" s="8"/>
+      <c r="A22" s="7"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1735,7 +1739,7 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" s="1" customFormat="1">
-      <c r="A23" s="8"/>
+      <c r="A23" s="7"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1746,7 +1750,7 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" s="1" customFormat="1">
-      <c r="A24" s="8"/>
+      <c r="A24" s="7"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1757,7 +1761,7 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" s="1" customFormat="1">
-      <c r="A25" s="8"/>
+      <c r="A25" s="7"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1768,8 +1772,8 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" s="1" customFormat="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1780,8 +1784,8 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" s="1" customFormat="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1792,7 +1796,7 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" s="1" customFormat="1">
-      <c r="A28" s="8"/>
+      <c r="A28" s="7"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1803,7 +1807,7 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" s="1" customFormat="1">
-      <c r="A29" s="8"/>
+      <c r="A29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1814,7 +1818,7 @@
       <c r="J29" s="1"/>
     </row>
     <row r="30" s="1" customFormat="1">
-      <c r="A30" s="8"/>
+      <c r="A30" s="7"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1825,7 +1829,7 @@
       <c r="J30" s="1"/>
     </row>
     <row r="31" s="1" customFormat="1">
-      <c r="A31" s="8"/>
+      <c r="A31" s="7"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1836,7 +1840,7 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" s="1" customFormat="1">
-      <c r="A32" s="8"/>
+      <c r="A32" s="7"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1847,7 +1851,7 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" s="1" customFormat="1">
-      <c r="A33" s="8"/>
+      <c r="A33" s="7"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1858,7 +1862,7 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" s="1" customFormat="1">
-      <c r="A34" s="8"/>
+      <c r="A34" s="7"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1869,7 +1873,7 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" s="1" customFormat="1">
-      <c r="A35" s="8"/>
+      <c r="A35" s="7"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1880,7 +1884,7 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" s="1" customFormat="1">
-      <c r="A36" s="8"/>
+      <c r="A36" s="7"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1891,7 +1895,7 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" s="1" customFormat="1">
-      <c r="A37" s="8"/>
+      <c r="A37" s="7"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1902,7 +1906,7 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" s="1" customFormat="1">
-      <c r="A38" s="8"/>
+      <c r="A38" s="7"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1913,7 +1917,7 @@
       <c r="J38" s="1"/>
     </row>
     <row r="39" s="1" customFormat="1">
-      <c r="A39" s="8"/>
+      <c r="A39" s="7"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1924,7 +1928,7 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" s="1" customFormat="1">
-      <c r="A40" s="8"/>
+      <c r="A40" s="7"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1935,7 +1939,7 @@
       <c r="J40" s="1"/>
     </row>
     <row r="41" s="1" customFormat="1">
-      <c r="A41" s="8"/>
+      <c r="A41" s="7"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1946,7 +1950,7 @@
       <c r="J41" s="1"/>
     </row>
     <row r="42" s="1" customFormat="1">
-      <c r="A42" s="8"/>
+      <c r="A42" s="7"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1957,7 +1961,7 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" s="1" customFormat="1">
-      <c r="A43" s="8"/>
+      <c r="A43" s="7"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1968,7 +1972,7 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" s="1" customFormat="1">
-      <c r="A44" s="8"/>
+      <c r="A44" s="7"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
